--- a/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C139BC3E-C34B-4F6B-9AD6-5ED46DE3F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85CE6AF-2604-48F2-A24A-BD6A76BEBAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA809A84-0E33-44E4-820A-9801B7C2C6BB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83C10A58-FFD5-4339-8B61-15EDDF0BD595}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>31,13%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>Sí, dos o más veces</t>
@@ -104,10 +104,10 @@
     <t>10,24%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>12,74%</t>
@@ -116,16 +116,16 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>19,43%</t>
+    <t>20,28%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>Sí, una vez</t>
@@ -134,28 +134,28 @@
     <t>58,62%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,217 +167,214 @@
     <t>41,15%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>24,48%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>53,4%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>68,54%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E4CF95-2741-4518-9EA8-494904BD2E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC511EFB-F18C-4C8D-B679-C66932E85971}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1257,10 +1254,10 @@
         <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,7 +1313,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1328,13 +1325,13 @@
         <v>845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1343,13 +1340,13 @@
         <v>4039</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1358,13 +1355,13 @@
         <v>4884</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,7 +1382,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1400,7 +1397,7 @@
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1415,7 +1412,7 @@
         <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,13 +1427,13 @@
         <v>1328</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1445,13 +1442,13 @@
         <v>2316</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1460,13 +1457,13 @@
         <v>3644</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,13 +1531,13 @@
         <v>12399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -1549,13 +1546,13 @@
         <v>24406</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -1564,13 +1561,13 @@
         <v>36805</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,13 +1582,13 @@
         <v>2218</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -1600,13 +1597,13 @@
         <v>9800</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1615,13 +1612,13 @@
         <v>12018</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1639,10 +1636,10 @@
         <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -1651,13 +1648,13 @@
         <v>54976</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>140</v>
@@ -1666,13 +1663,13 @@
         <v>75882</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1725,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85CE6AF-2604-48F2-A24A-BD6A76BEBAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{039375C3-D532-4714-B36D-6C596F7272C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83C10A58-FFD5-4339-8B61-15EDDF0BD595}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC974D2F-0929-4603-8926-17DFE2322A88}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC511EFB-F18C-4C8D-B679-C66932E85971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE68369-E232-49DD-82C3-EF0F2BA1E4AF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039375C3-D532-4714-B36D-6C596F7272C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{063E975F-E28B-42E5-8E6F-404ED1A9995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC974D2F-0929-4603-8926-17DFE2322A88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A3E0388-CB61-436C-A838-303B11535218}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>31,13%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
   </si>
   <si>
     <t>Sí, dos o más veces</t>
@@ -104,10 +104,10 @@
     <t>10,24%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>12,74%</t>
@@ -116,16 +116,16 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>20,28%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>Sí, una vez</t>
@@ -134,28 +134,28 @@
     <t>58,62%</t>
   </si>
   <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,28 +167,28 @@
     <t>41,15%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -203,37 +203,40 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>21,8%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>15,17%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>57,06%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>70,99%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,19 +251,19 @@
     <t>63,56%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -284,97 +287,97 @@
     <t>36,44%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE68369-E232-49DD-82C3-EF0F2BA1E4AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82626B2A-4D07-42B9-A197-3B366FA8013D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1254,10 +1257,10 @@
         <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,7 +1316,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1325,13 +1328,13 @@
         <v>845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1340,13 +1343,13 @@
         <v>4039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1355,13 +1358,13 @@
         <v>4884</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1382,7 +1385,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1397,7 +1400,7 @@
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1412,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,13 +1430,13 @@
         <v>1328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1442,13 +1445,13 @@
         <v>2316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1457,13 +1460,13 @@
         <v>3644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1534,13 @@
         <v>12399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -1546,13 +1549,13 @@
         <v>24406</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -1561,13 +1564,13 @@
         <v>36805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,13 +1585,13 @@
         <v>2218</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -1597,13 +1600,13 @@
         <v>9800</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1612,13 +1615,13 @@
         <v>12018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,10 +1639,10 @@
         <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -1648,13 +1651,13 @@
         <v>54976</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>140</v>
@@ -1663,13 +1666,13 @@
         <v>75882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1728,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063E975F-E28B-42E5-8E6F-404ED1A9995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7032F99C-2F53-4C9C-B181-4A63E904F12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A3E0388-CB61-436C-A838-303B11535218}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AF83A6FD-3DB2-4387-8655-8B92DF66B11C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -71,91 +71,88 @@
     <t>No</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>Sí, dos o más veces</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>Sí, una vez</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,31 +161,31 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -200,70 +197,67 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -275,109 +269,112 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82626B2A-4D07-42B9-A197-3B366FA8013D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F982BEB1-AB0A-4AB4-80B1-84695755E044}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -913,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>6742</v>
+        <v>6558</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -928,7 +925,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>15394</v>
+        <v>14076</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -943,7 +940,7 @@
         <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>22136</v>
+        <v>20634</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -964,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>2218</v>
+        <v>2194</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -979,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>8777</v>
+        <v>8057</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -994,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>10995</v>
+        <v>10251</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1003,58 +1000,58 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>12694</v>
+        <v>12094</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>84</v>
       </c>
       <c r="I6" s="7">
-        <v>44696</v>
+        <v>41042</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>106</v>
       </c>
       <c r="N6" s="7">
-        <v>57390</v>
+        <v>53136</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1066,51 +1063,51 @@
         <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>21654</v>
+        <v>20846</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
       </c>
       <c r="I7" s="7">
-        <v>68867</v>
+        <v>63175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
       </c>
       <c r="N7" s="7">
-        <v>90520</v>
+        <v>84021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1119,46 +1116,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>4813</v>
+        <v>4690</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>4972</v>
+        <v>4679</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>9785</v>
+        <v>9369</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,94 +1170,94 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1023</v>
+        <v>946</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1023</v>
+        <v>946</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>6883</v>
+        <v>6542</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>7965</v>
+        <v>7403</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>14848</v>
+        <v>13944</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,51 +1269,51 @@
         <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>11696</v>
+        <v>11232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>13960</v>
+        <v>13027</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>25656</v>
+        <v>24259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1325,46 +1322,46 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>4039</v>
+        <v>3729</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>4884</v>
+        <v>4535</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1394,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1409,64 +1406,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1328</v>
+        <v>1226</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>2316</v>
+        <v>2168</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>3644</v>
+        <v>3393</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,46 +1475,46 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>2173</v>
+        <v>2031</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>6355</v>
+        <v>5897</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>8528</v>
+        <v>7928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,46 +1528,46 @@
         <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>12399</v>
+        <v>12054</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>24406</v>
+        <v>22484</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>36805</v>
+        <v>34537</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,97 +1579,97 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2218</v>
+        <v>2194</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>9800</v>
+        <v>9003</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>12018</v>
+        <v>11197</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>20905</v>
+        <v>19862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
       </c>
       <c r="I18" s="7">
-        <v>54976</v>
+        <v>50613</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>140</v>
       </c>
       <c r="N18" s="7">
-        <v>75882</v>
+        <v>70474</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,51 +1681,51 @@
         <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>35522</v>
+        <v>34109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
       </c>
       <c r="I19" s="7">
-        <v>89181</v>
+        <v>82100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>230</v>
       </c>
       <c r="N19" s="7">
-        <v>124704</v>
+        <v>116208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
